--- a/set/payGo/capacity/1:3.5/amount/3C1(hub).xlsx
+++ b/set/payGo/capacity/1:3.5/amount/3C1(hub).xlsx
@@ -398,16 +398,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="E2" t="n">
         <v>10.15</v>
@@ -432,7 +432,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -463,16 +463,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="E4" t="n">
         <v>10.15</v>
@@ -494,16 +494,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14</v>
+        <v>0.005</v>
       </c>
       <c r="E5" t="n">
         <v>10.15</v>
@@ -530,11 +530,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.005</v>
+        <v>0.304</v>
       </c>
       <c r="E6" t="n">
         <v>10.15</v>
@@ -556,7 +556,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.097</v>
+        <v>0.006</v>
       </c>
       <c r="E7" t="n">
         <v>10.15</v>
@@ -592,11 +592,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.005</v>
+        <v>0.101</v>
       </c>
       <c r="E8" t="n">
         <v>10.15</v>
@@ -623,7 +623,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.206</v>
+        <v>0.006</v>
       </c>
       <c r="E10" t="n">
         <v>10.15</v>
@@ -680,16 +680,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.204</v>
+        <v>0.007</v>
       </c>
       <c r="E11" t="n">
         <v>10.15</v>
@@ -716,7 +716,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -747,7 +747,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -773,12 +773,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -804,7 +804,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -835,16 +835,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E16" t="n">
         <v>10.15</v>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E17" t="n">
         <v>10.15</v>
@@ -897,16 +897,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="E18" t="n">
         <v>10.15</v>
@@ -933,7 +933,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -959,16 +959,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E20" t="n">
         <v>10.15</v>
@@ -990,12 +990,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1021,16 +1021,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E22" t="n">
         <v>10.15</v>
@@ -1052,16 +1052,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.007</v>
+        <v>0.026</v>
       </c>
       <c r="E23" t="n">
         <v>10.15</v>
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.007</v>
+        <v>0.029</v>
       </c>
       <c r="E24" t="n">
         <v>10.15</v>
@@ -1114,16 +1114,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.006</v>
+        <v>0.029</v>
       </c>
       <c r="E25" t="n">
         <v>10.15</v>
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E26" t="n">
         <v>10.15</v>
@@ -1181,11 +1181,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E27" t="n">
         <v>10.15</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E29" t="n">
         <v>10.15</v>
@@ -1269,7 +1269,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E30" t="n">
         <v>10.15</v>
@@ -1300,7 +1300,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E31" t="n">
         <v>10.15</v>
@@ -1336,11 +1336,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E32" t="n">
         <v>10.15</v>
@@ -1362,16 +1362,16 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E33" t="n">
         <v>10.15</v>
@@ -1398,11 +1398,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E34" t="n">
         <v>10.15</v>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1455,16 +1455,16 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E36" t="n">
         <v>10.15</v>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1517,16 +1517,16 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E38" t="n">
         <v>10.15</v>
@@ -1548,16 +1548,16 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E39" t="n">
         <v>10.15</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1610,16 +1610,16 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E41" t="n">
         <v>10.15</v>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E42" t="n">
         <v>10.15</v>
@@ -1672,16 +1672,16 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E43" t="n">
         <v>10.15</v>
@@ -1703,16 +1703,16 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E44" t="n">
         <v>10.15</v>
@@ -1734,7 +1734,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.008</v>
+        <v>0.029</v>
       </c>
       <c r="E45" t="n">
         <v>10.15</v>
@@ -1765,7 +1765,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="E46" t="n">
         <v>10.15</v>
@@ -1801,11 +1801,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E47" t="n">
         <v>10.15</v>
@@ -1827,12 +1827,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1858,7 +1858,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E49" t="n">
         <v>10.15</v>
@@ -1889,7 +1889,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1920,12 +1920,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1956,11 +1956,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.007</v>
+        <v>0.027</v>
       </c>
       <c r="E52" t="n">
         <v>10.15</v>
@@ -2044,12 +2044,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2080,11 +2080,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E56" t="n">
         <v>10.15</v>
@@ -2111,11 +2111,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E57" t="n">
         <v>10.15</v>
@@ -2137,12 +2137,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2168,7 +2168,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="E59" t="n">
         <v>10.15</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2230,12 +2230,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2261,7 +2261,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2297,11 +2297,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E63" t="n">
         <v>10.15</v>
@@ -2323,12 +2323,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2354,7 +2354,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E65" t="n">
         <v>10.15</v>
@@ -2390,11 +2390,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E66" t="n">
         <v>10.15</v>
@@ -2416,7 +2416,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2447,12 +2447,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2478,12 +2478,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2514,11 +2514,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E70" t="n">
         <v>10.15</v>
@@ -2571,16 +2571,16 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E72" t="n">
         <v>10.15</v>
@@ -2602,7 +2602,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="E73" t="n">
         <v>10.15</v>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E74" t="n">
         <v>10.15</v>
@@ -2669,11 +2669,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E75" t="n">
         <v>10.15</v>
@@ -2700,11 +2700,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E76" t="n">
         <v>10.15</v>
@@ -2726,12 +2726,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2757,16 +2757,16 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E78" t="n">
         <v>10.15</v>
@@ -2793,11 +2793,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E79" t="n">
         <v>10.15</v>
@@ -2819,7 +2819,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.008</v>
+        <v>0.031</v>
       </c>
       <c r="E80" t="n">
         <v>10.15</v>
@@ -2850,16 +2850,16 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="E81" t="n">
         <v>10.15</v>
@@ -2881,12 +2881,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2917,11 +2917,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E83" t="n">
         <v>10.15</v>
@@ -2943,16 +2943,16 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E84" t="n">
         <v>10.15</v>
@@ -2979,11 +2979,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E85" t="n">
         <v>10.15</v>
@@ -3005,12 +3005,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3036,7 +3036,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E87" t="n">
         <v>10.15</v>
@@ -3067,12 +3067,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3098,16 +3098,16 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E89" t="n">
         <v>10.15</v>
@@ -3129,16 +3129,16 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E90" t="n">
         <v>10.15</v>
@@ -3160,12 +3160,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -3222,16 +3222,16 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E93" t="n">
         <v>10.15</v>
@@ -3253,16 +3253,16 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E94" t="n">
         <v>10.15</v>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E96" t="n">
         <v>10.15</v>
@@ -3351,11 +3351,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.006</v>
+        <v>0.028</v>
       </c>
       <c r="E97" t="n">
         <v>10.15</v>
@@ -3377,12 +3377,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3408,7 +3408,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.007</v>
+        <v>0.032</v>
       </c>
       <c r="E99" t="n">
         <v>10.15</v>
@@ -3444,11 +3444,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E100" t="n">
         <v>10.15</v>
@@ -3501,7 +3501,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.006</v>
+        <v>0.023</v>
       </c>
       <c r="E102" t="n">
         <v>10.15</v>
@@ -3532,16 +3532,16 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E103" t="n">
         <v>10.15</v>
@@ -3568,11 +3568,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="E104" t="n">
         <v>10.15</v>
@@ -3599,11 +3599,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E105" t="n">
         <v>10.15</v>
@@ -3625,12 +3625,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3661,11 +3661,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E107" t="n">
         <v>10.15</v>
@@ -3687,16 +3687,16 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="E108" t="n">
         <v>10.15</v>
@@ -3718,12 +3718,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -3780,12 +3780,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -3811,16 +3811,16 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E112" t="n">
         <v>10.15</v>
@@ -3847,11 +3847,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.006</v>
+        <v>0.061</v>
       </c>
       <c r="E113" t="n">
         <v>10.15</v>
@@ -3873,7 +3873,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E114" t="n">
         <v>10.15</v>
@@ -3904,16 +3904,16 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E115" t="n">
         <v>10.15</v>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -3966,16 +3966,16 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E117" t="n">
         <v>10.15</v>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E118" t="n">
         <v>10.15</v>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E119" t="n">
         <v>10.15</v>
@@ -4059,7 +4059,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E120" t="n">
         <v>10.15</v>
@@ -4090,7 +4090,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4121,16 +4121,16 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E122" t="n">
         <v>10.15</v>
@@ -4152,16 +4152,16 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E123" t="n">
         <v>10.15</v>
@@ -4183,16 +4183,16 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E124" t="n">
         <v>10.15</v>
@@ -4223,7 +4223,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E125" t="n">
         <v>10.15</v>
@@ -4245,12 +4245,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -4276,16 +4276,16 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E127" t="n">
         <v>10.15</v>
@@ -4307,7 +4307,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4343,11 +4343,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E129" t="n">
         <v>10.15</v>
@@ -4369,7 +4369,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E130" t="n">
         <v>10.15</v>
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E131" t="n">
         <v>10.15</v>
@@ -4440,7 +4440,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E132" t="n">
         <v>10.15</v>
@@ -4467,11 +4467,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.006</v>
+        <v>0.036</v>
       </c>
       <c r="E133" t="n">
         <v>10.15</v>
@@ -4498,11 +4498,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E134" t="n">
         <v>10.15</v>
@@ -4524,16 +4524,16 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E135" t="n">
         <v>10.15</v>
@@ -4555,16 +4555,16 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E136" t="n">
         <v>10.15</v>
@@ -4586,16 +4586,16 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.053</v>
+        <v>0.006</v>
       </c>
       <c r="E137" t="n">
         <v>10.15</v>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E138" t="n">
         <v>10.15</v>
@@ -4648,7 +4648,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4684,11 +4684,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
       <c r="E140" t="n">
         <v>10.15</v>
@@ -4715,11 +4715,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.042</v>
+        <v>0.006</v>
       </c>
       <c r="E141" t="n">
         <v>10.15</v>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -4834,7 +4834,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.046</v>
+        <v>0.008</v>
       </c>
       <c r="E145" t="n">
         <v>10.15</v>
@@ -4874,7 +4874,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E146" t="n">
         <v>10.15</v>
@@ -4896,16 +4896,16 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E147" t="n">
         <v>10.15</v>
@@ -4927,12 +4927,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -4958,12 +4958,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -4989,16 +4989,16 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.007</v>
+        <v>0.041</v>
       </c>
       <c r="E150" t="n">
         <v>10.15</v>
@@ -5020,12 +5020,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -5051,16 +5051,16 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E152" t="n">
         <v>10.15</v>
@@ -5082,16 +5082,16 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="E153" t="n">
         <v>10.15</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E154" t="n">
         <v>10.15</v>
@@ -5144,16 +5144,16 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E155" t="n">
         <v>10.15</v>
@@ -5175,7 +5175,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5184,7 +5184,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E156" t="n">
         <v>10.15</v>
@@ -5206,16 +5206,16 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E157" t="n">
         <v>10.15</v>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -5273,11 +5273,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E159" t="n">
         <v>10.15</v>
@@ -5304,11 +5304,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E160" t="n">
         <v>10.15</v>
@@ -5330,16 +5330,16 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E161" t="n">
         <v>10.15</v>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -5392,16 +5392,16 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E163" t="n">
         <v>10.15</v>
@@ -5423,16 +5423,16 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="E164" t="n">
         <v>10.15</v>
@@ -5454,16 +5454,16 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E165" t="n">
         <v>10.15</v>
@@ -5485,7 +5485,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.052</v>
+        <v>0.006</v>
       </c>
       <c r="E166" t="n">
         <v>10.15</v>
@@ -5516,7 +5516,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="E167" t="n">
         <v>10.15</v>
@@ -5547,16 +5547,16 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.022</v>
+        <v>0.006</v>
       </c>
       <c r="E168" t="n">
         <v>10.15</v>
@@ -5578,16 +5578,16 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E169" t="n">
         <v>10.15</v>
@@ -5609,7 +5609,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E170" t="n">
         <v>10.15</v>
@@ -5645,11 +5645,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E171" t="n">
         <v>10.15</v>
@@ -5676,11 +5676,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E172" t="n">
         <v>10.15</v>
@@ -5707,11 +5707,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.027</v>
+        <v>0.007</v>
       </c>
       <c r="E173" t="n">
         <v>10.15</v>
@@ -5733,16 +5733,16 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E174" t="n">
         <v>10.15</v>
@@ -5764,16 +5764,16 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.029</v>
+        <v>0.006</v>
       </c>
       <c r="E175" t="n">
         <v>10.15</v>
@@ -5795,16 +5795,16 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.045</v>
+        <v>0.007</v>
       </c>
       <c r="E176" t="n">
         <v>10.15</v>
@@ -5826,16 +5826,16 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E177" t="n">
         <v>10.15</v>
@@ -5862,11 +5862,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E178" t="n">
         <v>10.15</v>
@@ -5893,11 +5893,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E179" t="n">
         <v>10.15</v>
@@ -5924,11 +5924,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.052</v>
+        <v>0.02</v>
       </c>
       <c r="E180" t="n">
         <v>10.15</v>
@@ -5950,12 +5950,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -5990,7 +5990,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.033</v>
+        <v>0.006</v>
       </c>
       <c r="E182" t="n">
         <v>10.15</v>
@@ -6017,11 +6017,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="E183" t="n">
         <v>10.15</v>
@@ -6043,16 +6043,16 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E184" t="n">
         <v>10.15</v>
@@ -6074,7 +6074,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E185" t="n">
         <v>10.15</v>
@@ -6110,11 +6110,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.045</v>
+        <v>0.006</v>
       </c>
       <c r="E186" t="n">
         <v>10.15</v>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.03</v>
+        <v>0.007</v>
       </c>
       <c r="E187" t="n">
         <v>10.15</v>
@@ -6167,16 +6167,16 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.037</v>
+        <v>0.031</v>
       </c>
       <c r="E188" t="n">
         <v>10.15</v>
@@ -6198,7 +6198,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.022</v>
+        <v>0.006</v>
       </c>
       <c r="E190" t="n">
         <v>10.15</v>
@@ -6260,16 +6260,16 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="E191" t="n">
         <v>10.15</v>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -6322,7 +6322,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.034</v>
+        <v>0.02</v>
       </c>
       <c r="E193" t="n">
         <v>10.15</v>
@@ -6358,11 +6358,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.018</v>
+        <v>0.006</v>
       </c>
       <c r="E194" t="n">
         <v>10.15</v>
@@ -6384,7 +6384,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6393,7 +6393,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.024</v>
+        <v>0.007</v>
       </c>
       <c r="E195" t="n">
         <v>10.15</v>
@@ -6415,7 +6415,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.034</v>
+        <v>0.006</v>
       </c>
       <c r="E196" t="n">
         <v>10.15</v>
@@ -6446,16 +6446,16 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.027</v>
+        <v>0.007</v>
       </c>
       <c r="E197" t="n">
         <v>10.15</v>
@@ -6477,7 +6477,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6486,7 +6486,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.026</v>
+        <v>0.007</v>
       </c>
       <c r="E198" t="n">
         <v>10.15</v>
@@ -6508,16 +6508,16 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="E199" t="n">
         <v>10.15</v>
@@ -6539,16 +6539,16 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="E200" t="n">
         <v>10.15</v>
@@ -6570,16 +6570,16 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
       <c r="E201" t="n">
         <v>10.15</v>
@@ -6601,16 +6601,16 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.007</v>
+        <v>0.049</v>
       </c>
       <c r="E202" t="n">
         <v>10.15</v>
